--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1070217.473165187</v>
+        <v>1067516.368390233</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,55 +665,55 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>81.21477241771939</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>81.21477241771937</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>77.08171901666378</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>77.08171901666375</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
         <v>187.52558716632</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="D3" t="n">
-        <v>106.267978272003</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>136.5118076778447</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>199.3492211929889</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>34.47809986852327</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>145.208314147326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.76648457502512</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>250.7831302631782</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>303.3533951399085</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83349180859359</v>
+        <v>83.85097430680057</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9453895236494</v>
+        <v>303.9453895236493</v>
       </c>
       <c r="I8" t="n">
-        <v>76.72779446896621</v>
+        <v>76.72779446896567</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.909226483746</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,16 +1218,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4873070665456</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.30836251344157</v>
+        <v>94.30836251344149</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>30.4316525236523</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2048826855193</v>
+        <v>137.2048826855191</v>
       </c>
       <c r="T9" t="n">
         <v>192.6828994016847</v>
       </c>
       <c r="U9" t="n">
-        <v>180.8140212663894</v>
+        <v>225.8192629956679</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1275,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>51.16230961916062</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.738794688289786</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4347951675532</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.2964387944122</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.5579348066329</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>3.975292544773481</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>270.1915102239685</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238024</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.975526991141</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1467,7 +1467,7 @@
         <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035209</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.2502406851258</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146338</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>196.2511428064776</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754684</v>
       </c>
       <c r="H14" t="n">
         <v>283.5630920045443</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081966</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001815</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70.40166960200483</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119296</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>7.155999212082628</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986245</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>175.3193898991487</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>47.88058113793289</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>179.2499669408063</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419834138</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2764,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>211.1474991249035</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892412</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.14967908986294</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>18.7084378797693</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>23.1099832571713</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.207068174442753</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3667,19 +3667,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.97427419833852</v>
       </c>
       <c r="H40" t="n">
-        <v>18.93832930943051</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>130.9398757025646</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,10 +4186,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>150.3341561773491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>293.4024563932559</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="C2" t="n">
-        <v>293.4024563932559</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="D2" t="n">
-        <v>293.4024563932559</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="E2" t="n">
-        <v>211.3673327389939</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="F2" t="n">
-        <v>204.4218319897904</v>
+        <v>97.03717062756759</v>
       </c>
       <c r="G2" t="n">
         <v>15.0020469733056</v>
@@ -4328,19 +4328,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
         <v>649.4845259985584</v>
@@ -4358,22 +4358,22 @@
         <v>672.2420264262255</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262255</v>
+        <v>482.8222414097407</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262255</v>
+        <v>293.4024563932559</v>
       </c>
       <c r="V2" t="n">
-        <v>482.8222414097407</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="W2" t="n">
-        <v>482.8222414097407</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="X2" t="n">
-        <v>293.4024563932559</v>
+        <v>103.9826713767711</v>
       </c>
       <c r="Y2" t="n">
-        <v>293.4024563932559</v>
+        <v>103.9826713767711</v>
       </c>
     </row>
     <row r="3">
@@ -4386,22 +4386,22 @@
         <v>181.8429936158253</v>
       </c>
       <c r="C3" t="n">
-        <v>181.8429936158253</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
         <v>15.0020469733056</v>
@@ -4410,19 +4410,19 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546602</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
         <v>739.5989987017064</v>
@@ -4437,19 +4437,19 @@
         <v>750.1023486652798</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652798</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652798</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487949</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="X3" t="n">
-        <v>371.2627786323101</v>
+        <v>181.8429936158253</v>
       </c>
       <c r="Y3" t="n">
         <v>181.8429936158253</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F4" t="n">
         <v>15.0020469733056</v>
@@ -4492,46 +4492,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170722</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1705.262284299213</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="C5" t="n">
-        <v>1336.299767358801</v>
+        <v>1113.760102633513</v>
       </c>
       <c r="D5" t="n">
-        <v>978.0340687520506</v>
+        <v>755.4944040267628</v>
       </c>
       <c r="E5" t="n">
-        <v>592.2458161538063</v>
+        <v>369.7061514285186</v>
       </c>
       <c r="F5" t="n">
-        <v>181.2599113641988</v>
+        <v>362.7606506793151</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809305</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642783</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642783</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642783</v>
+        <v>1834.962321952896</v>
       </c>
       <c r="V5" t="n">
-        <v>1705.262284299213</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="W5" t="n">
-        <v>1705.262284299213</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="X5" t="n">
-        <v>1705.262284299213</v>
+        <v>1503.899434609325</v>
       </c>
       <c r="Y5" t="n">
-        <v>1705.262284299213</v>
+        <v>1113.760102633513</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525.9940904859268</v>
+        <v>533.7044947829231</v>
       </c>
       <c r="C6" t="n">
-        <v>351.5410612047998</v>
+        <v>359.2514655017961</v>
       </c>
       <c r="D6" t="n">
-        <v>202.6066515435485</v>
+        <v>210.3170558405449</v>
       </c>
       <c r="E6" t="n">
-        <v>43.36919653809305</v>
+        <v>210.3170558405449</v>
       </c>
       <c r="F6" t="n">
-        <v>43.36919653809305</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809305</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809305</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K6" t="n">
         <v>246.6448318504519</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104394</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789486</v>
       </c>
       <c r="N6" t="n">
         <v>1166.88538687358</v>
@@ -4662,34 +4662,34 @@
         <v>1458.244633128146</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.753048689046</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.227047333486</v>
       </c>
       <c r="S6" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T6" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="U6" t="n">
-        <v>1538.125457466751</v>
+        <v>1399.160796968468</v>
       </c>
       <c r="V6" t="n">
-        <v>1302.973349235008</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W6" t="n">
-        <v>1048.735992506806</v>
+        <v>909.771332008524</v>
       </c>
       <c r="X6" t="n">
-        <v>840.8844923012737</v>
+        <v>701.9198318029912</v>
       </c>
       <c r="Y6" t="n">
-        <v>694.2094275059949</v>
+        <v>701.9198318029912</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>212.305379466</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809305</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981521</v>
+        <v>92.71685897981519</v>
       </c>
       <c r="L7" t="n">
         <v>185.7706748018941</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>287.1411594927331</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377459</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033657</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="R7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="S7" t="n">
-        <v>520.2893470405991</v>
+        <v>520.289347040599</v>
       </c>
       <c r="T7" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="U7" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="V7" t="n">
-        <v>265.6048588347122</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="W7" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X7" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y7" t="n">
-        <v>265.6048588347122</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>833.4825632187722</v>
+        <v>1264.493193641893</v>
       </c>
       <c r="C8" t="n">
-        <v>833.4825632187722</v>
+        <v>1264.493193641893</v>
       </c>
       <c r="D8" t="n">
-        <v>833.4825632187722</v>
+        <v>906.2274950351425</v>
       </c>
       <c r="E8" t="n">
-        <v>447.6943106205279</v>
+        <v>520.4392424368982</v>
       </c>
       <c r="F8" t="n">
-        <v>440.7488098713244</v>
+        <v>513.4937416876948</v>
       </c>
       <c r="G8" t="n">
-        <v>428.795787842442</v>
+        <v>428.7957878424417</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7802428690587</v>
+        <v>121.7802428690585</v>
       </c>
       <c r="I8" t="n">
-        <v>44.27742017313322</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="J8" t="n">
-        <v>156.5453885494315</v>
+        <v>156.5453885494339</v>
       </c>
       <c r="K8" t="n">
-        <v>375.5444889229394</v>
+        <v>375.5444889229439</v>
       </c>
       <c r="L8" t="n">
-        <v>684.1340000193427</v>
+        <v>684.1340000193497</v>
       </c>
       <c r="M8" t="n">
-        <v>1059.168727391403</v>
+        <v>1059.168727391413</v>
       </c>
       <c r="N8" t="n">
-        <v>1444.885717117913</v>
+        <v>1444.885717117925</v>
       </c>
       <c r="O8" t="n">
-        <v>1795.7720716231</v>
+        <v>1795.772071623115</v>
       </c>
       <c r="P8" t="n">
-        <v>2060.744456291601</v>
+        <v>2060.744456291618</v>
       </c>
       <c r="Q8" t="n">
-        <v>2211.554935535252</v>
+        <v>2211.55493553527</v>
       </c>
       <c r="R8" t="n">
-        <v>2213.871008656661</v>
+        <v>2213.87100865668</v>
       </c>
       <c r="S8" t="n">
-        <v>2213.871008656661</v>
+        <v>2213.87100865668</v>
       </c>
       <c r="T8" t="n">
-        <v>2213.871008656661</v>
+        <v>2003.861688976129</v>
       </c>
       <c r="U8" t="n">
-        <v>2213.871008656661</v>
+        <v>2003.861688976129</v>
       </c>
       <c r="V8" t="n">
-        <v>1882.80812131309</v>
+        <v>2003.861688976129</v>
       </c>
       <c r="W8" t="n">
-        <v>1530.039466042976</v>
+        <v>1651.093033706015</v>
       </c>
       <c r="X8" t="n">
-        <v>1530.039466042976</v>
+        <v>1651.093033706015</v>
       </c>
       <c r="Y8" t="n">
-        <v>1139.900134067165</v>
+        <v>1651.093033706015</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>584.5661227994231</v>
+        <v>288.4728020701843</v>
       </c>
       <c r="C9" t="n">
-        <v>584.5661227994231</v>
+        <v>288.4728020701843</v>
       </c>
       <c r="D9" t="n">
-        <v>435.6317131381717</v>
+        <v>139.5383924089331</v>
       </c>
       <c r="E9" t="n">
-        <v>276.3942581327162</v>
+        <v>139.5383924089331</v>
       </c>
       <c r="F9" t="n">
-        <v>276.3942581327162</v>
+        <v>139.5383924089331</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5383924089328</v>
+        <v>139.5383924089331</v>
       </c>
       <c r="H9" t="n">
-        <v>44.27742017313322</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="I9" t="n">
-        <v>44.27742017313322</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="J9" t="n">
-        <v>92.32560606848395</v>
+        <v>92.32560606848503</v>
       </c>
       <c r="K9" t="n">
-        <v>252.6024334910144</v>
+        <v>252.6024334910166</v>
       </c>
       <c r="L9" t="n">
-        <v>514.4369485047765</v>
+        <v>514.4369485047804</v>
       </c>
       <c r="M9" t="n">
-        <v>839.3423457618841</v>
+        <v>839.3423457618899</v>
       </c>
       <c r="N9" t="n">
-        <v>1187.255667013952</v>
+        <v>1187.25566701396</v>
       </c>
       <c r="O9" t="n">
-        <v>1483.308590376465</v>
+        <v>1483.308590376474</v>
       </c>
       <c r="P9" t="n">
-        <v>1701.584095618376</v>
+        <v>1701.584095618387</v>
       </c>
       <c r="Q9" t="n">
-        <v>1797.576293952194</v>
+        <v>1797.576293952206</v>
       </c>
       <c r="R9" t="n">
-        <v>1797.576293952194</v>
+        <v>1766.837250999022</v>
       </c>
       <c r="S9" t="n">
-        <v>1658.98550336076</v>
+        <v>1628.246460407588</v>
       </c>
       <c r="T9" t="n">
-        <v>1464.356312045927</v>
+        <v>1433.617269092755</v>
       </c>
       <c r="U9" t="n">
-        <v>1281.715886524321</v>
+        <v>1205.517003440565</v>
       </c>
       <c r="V9" t="n">
-        <v>1046.563778292578</v>
+        <v>970.3648952088226</v>
       </c>
       <c r="W9" t="n">
-        <v>792.3264215643769</v>
+        <v>716.1275384806211</v>
       </c>
       <c r="X9" t="n">
-        <v>792.3264215643769</v>
+        <v>664.4484378552063</v>
       </c>
       <c r="Y9" t="n">
-        <v>584.5661227994231</v>
+        <v>456.6881390902524</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>535.0394137095373</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="C10" t="n">
-        <v>366.1032307816304</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="D10" t="n">
-        <v>360.3064684702265</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="E10" t="n">
-        <v>212.3933748878334</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="F10" t="n">
-        <v>212.3933748878334</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="G10" t="n">
-        <v>44.27742017313322</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="H10" t="n">
-        <v>44.27742017313322</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="I10" t="n">
-        <v>44.27742017313322</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="J10" t="n">
-        <v>44.27742017313322</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="K10" t="n">
-        <v>95.54660022226361</v>
+        <v>95.54660022226473</v>
       </c>
       <c r="L10" t="n">
-        <v>191.0592970264672</v>
+        <v>191.0592970264693</v>
       </c>
       <c r="M10" t="n">
-        <v>295.0223269524033</v>
+        <v>295.0223269524064</v>
       </c>
       <c r="N10" t="n">
-        <v>404.3708743014461</v>
+        <v>404.3708743014502</v>
       </c>
       <c r="O10" t="n">
-        <v>485.0588674359223</v>
+        <v>485.0588674359271</v>
       </c>
       <c r="P10" t="n">
-        <v>535.0394137095373</v>
+        <v>535.0394137095428</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.0394137095373</v>
+        <v>535.0394137095428</v>
       </c>
       <c r="R10" t="n">
-        <v>535.0394137095373</v>
+        <v>535.0394137095428</v>
       </c>
       <c r="S10" t="n">
-        <v>535.0394137095373</v>
+        <v>535.0394137095428</v>
       </c>
       <c r="T10" t="n">
-        <v>535.0394137095373</v>
+        <v>311.5076573515507</v>
       </c>
       <c r="U10" t="n">
-        <v>535.0394137095373</v>
+        <v>311.5076573515507</v>
       </c>
       <c r="V10" t="n">
-        <v>535.0394137095373</v>
+        <v>311.5076573515507</v>
       </c>
       <c r="W10" t="n">
-        <v>535.0394137095373</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="X10" t="n">
-        <v>535.0394137095373</v>
+        <v>44.27742017313361</v>
       </c>
       <c r="Y10" t="n">
-        <v>535.0394137095373</v>
+        <v>44.27742017313361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1921.858672753475</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="C11" t="n">
-        <v>1552.896155813063</v>
+        <v>1535.258832689351</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.630457206312</v>
+        <v>1176.993134082601</v>
       </c>
       <c r="E11" t="n">
-        <v>808.8422046080682</v>
+        <v>1176.993134082601</v>
       </c>
       <c r="F11" t="n">
-        <v>397.8562998184607</v>
+        <v>766.0072292929931</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035378</v>
+        <v>351.4317836226398</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386831</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420337</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301226</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878111</v>
+        <v>1851.48485887811</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765427</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687103</v>
+        <v>3070.226377687101</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856285</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882243</v>
+        <v>3835.937563882241</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234593</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455663</v>
+        <v>3826.588132455661</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971443</v>
+        <v>3622.786021971441</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604051</v>
+        <v>3369.295305604049</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.23241826048</v>
+        <v>3038.232418260478</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990366</v>
+        <v>2685.463762990365</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.998004729287</v>
+        <v>2311.998004729285</v>
       </c>
       <c r="Y11" t="n">
-        <v>1921.858672753475</v>
+        <v>1921.858672753473</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503046</v>
+        <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>78.51106622469186</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>358.8611360831294</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>782.148943510439</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282785</v>
+        <v>977.3905023848067</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279345</v>
+        <v>1518.698809735874</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601623</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.4693302379442</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="C13" t="n">
-        <v>671.5331473100373</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="D13" t="n">
-        <v>521.4165078977016</v>
+        <v>226.4241598070849</v>
       </c>
       <c r="E13" t="n">
-        <v>392.8809112460594</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="F13" t="n">
-        <v>245.9909637481491</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="G13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469186</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600402</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457707</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
-        <v>717.500225288892</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
         <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542994</v>
+        <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
         <v>1800.967734715849</v>
@@ -5218,31 +5218,31 @@
         <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551105</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
         <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.102739014273</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>2076.102739014273</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1787.012032454562</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1532.327544248675</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1242.910374211714</v>
+        <v>834.2956531176426</v>
       </c>
       <c r="X13" t="n">
-        <v>1242.910374211714</v>
+        <v>606.3061022196252</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.117795068184</v>
+        <v>408.0726246373247</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D14" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F14" t="n">
-        <v>793.22209597083</v>
+        <v>742.4225746200325</v>
       </c>
       <c r="G14" t="n">
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070873</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5343,40 +5343,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060315</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779263</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L15" t="n">
-        <v>731.1919378216775</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M15" t="n">
-        <v>1153.241917385463</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="N15" t="n">
-        <v>1775.337880784799</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2322.214355784993</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1015.754398433617</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>846.8182155057104</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>696.7015760933747</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="E16" t="n">
-        <v>548.7884825109816</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="F16" t="n">
-        <v>401.8985350130712</v>
+        <v>175.0061676818307</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876501</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156339</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861974</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693316</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368668</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.83764708305</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397777</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.07694519189</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1307.65977515493</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>1086.8671960114</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5507,46 +5507,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273906</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684978</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>808.8888553856866</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>639.9526724577797</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5677,46 +5677,46 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.5373202159263</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5744,55 +5744,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>557.5558870561789</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>388.6197041282754</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,7 +5923,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5938,7 +5938,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.2043518864186</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5978,58 +5978,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706077</v>
       </c>
       <c r="C25" t="n">
-        <v>532.5350811160199</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>382.4184417036842</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6157,40 +6157,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443776</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008474</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075799</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400745</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998319</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998319</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998319</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6394,7 +6394,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
         <v>2035.089393279803</v>
@@ -6403,31 +6403,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V28" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138444</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703142</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380881</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>572.9069687101812</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>572.9069687101812</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E31" t="n">
-        <v>424.9938751277881</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>278.1039276298777</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>278.1039276298777</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>136.3920964720758</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
         <v>2197.062545487567</v>
@@ -6661,10 +6661,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683278</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6695,22 +6695,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>95.58405025273902</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>557.5558870561823</v>
+        <v>513.8536007400678</v>
       </c>
       <c r="C34" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121609</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>194.8007783998252</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998252</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782927</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797714</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2423.619666148774</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S34" t="n">
-        <v>2240.764831803678</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>2021.163366826619</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1732.088140170817</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.40365196493</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1187.98648192797</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>959.9969310299522</v>
+        <v>916.2946447138377</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.204351886422</v>
+        <v>695.5020655703075</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>762.5348780504989</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504989</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381632</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557701</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,7 +7108,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2445.743822797995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2445.743822797995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2226.142357820936</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1392.965472922286</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y37" t="n">
-        <v>944.1833428807387</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>808.8888553856862</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C40" t="n">
-        <v>639.9526724577793</v>
+        <v>344.9174178121647</v>
       </c>
       <c r="D40" t="n">
-        <v>489.8360330454435</v>
+        <v>194.800778399829</v>
       </c>
       <c r="E40" t="n">
-        <v>341.9229394630504</v>
+        <v>194.800778399829</v>
       </c>
       <c r="F40" t="n">
-        <v>195.0329919651396</v>
+        <v>194.800778399829</v>
       </c>
       <c r="G40" t="n">
-        <v>195.0329919651396</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y40" t="n">
-        <v>990.5373202159259</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="41">
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>915.1035305473704</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473704</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="44">
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232836</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2197.062545487567</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1942.37805728168</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1652.96088724472</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>406.4543986688759</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>19.37720645670873</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>19.1837219614434</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
         <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034038</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.33351054561723</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50.29152613728922</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.29152613729271</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>109.4303105799325</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>84.16945386597396</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>141.4594738061297</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229284</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40.32043864788511</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393102</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.2652634529461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>119.3662399606949</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>46.45968844823082</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409392747</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24652,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>6.257951202384802</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>46.45968844823088</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>39.1161572287026</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>126.7126101431619</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>43.26526345295039</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>65.16817853567893</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393032</v>
       </c>
       <c r="H40" t="n">
-        <v>121.3563835367934</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>36.30694539606321</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,10 +26074,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>75.37549921168804</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>880679.5401437823</v>
+        <v>880679.540143782</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>957787.3868349821</v>
+        <v>957787.3868349824</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>963035.9097960531</v>
+        <v>963035.909796053</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>963035.909796053</v>
+        <v>963035.9097960528</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>963035.9097960531</v>
+        <v>963035.909796053</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>963035.909796053</v>
+        <v>963035.9097960527</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>963035.9097960531</v>
+        <v>963035.9097960528</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>963035.9097960531</v>
+        <v>963035.9097960528</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876635</v>
+        <v>423807.2415876634</v>
       </c>
       <c r="F2" t="n">
         <v>461540.8686918677</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="H2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="J2" t="n">
         <v>464109.2948217536</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>464109.2948217535</v>
-      </c>
-      <c r="K2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
+        <v>464109.2948217537</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217535</v>
-      </c>
-      <c r="N2" t="n">
-        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217535</v>
@@ -26369,16 +26369,16 @@
         <v>392510.2442861774</v>
       </c>
       <c r="D3" t="n">
-        <v>11460.51367737761</v>
+        <v>11460.51367738218</v>
       </c>
       <c r="E3" t="n">
-        <v>408312.2999680407</v>
+        <v>408312.2999680361</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051373</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557958</v>
+        <v>11167.23623557892</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854485</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487755</v>
+        <v>91259.95686487768</v>
       </c>
       <c r="L3" t="n">
-        <v>2873.290350199356</v>
+        <v>2873.290350200375</v>
       </c>
       <c r="M3" t="n">
-        <v>106639.5191329078</v>
+        <v>106639.5191329065</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.4065584889</v>
+        <v>43782.40655848923</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224857</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888978</v>
       </c>
       <c r="D4" t="n">
-        <v>171039.365829553</v>
+        <v>171039.3658295517</v>
       </c>
       <c r="E4" t="n">
         <v>15337.51904957362</v>
@@ -26433,31 +26433,31 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="K4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>15436.64000687967</v>
+      </c>
+      <c r="M4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687971</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>15436.64000687967</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15436.64000687966</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687966</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687971</v>
+        <v>15436.64000687966</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86091.29148672897</v>
+        <v>86091.29148672931</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214714</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-454780.2500946259</v>
+        <v>-454780.250094626</v>
       </c>
       <c r="C6" t="n">
-        <v>-179813.2985589842</v>
+        <v>-179813.2985589844</v>
       </c>
       <c r="D6" t="n">
-        <v>203507.8466783035</v>
+        <v>203507.8466782999</v>
       </c>
       <c r="E6" t="n">
-        <v>-85936.29959209794</v>
+        <v>-86146.2638359382</v>
       </c>
       <c r="F6" t="n">
-        <v>179447.2856872378</v>
+        <v>179401.3806916712</v>
       </c>
       <c r="G6" t="n">
-        <v>336382.8887553873</v>
+        <v>336348.1508299522</v>
       </c>
       <c r="H6" t="n">
-        <v>347550.1249909669</v>
+        <v>347515.3870655313</v>
       </c>
       <c r="I6" t="n">
-        <v>347550.1249909668</v>
+        <v>347515.3870655312</v>
       </c>
       <c r="J6" t="n">
-        <v>298485.1802624221</v>
+        <v>298450.4423369863</v>
       </c>
       <c r="K6" t="n">
-        <v>256290.1681260893</v>
+        <v>256255.4302006533</v>
       </c>
       <c r="L6" t="n">
-        <v>344676.8346407674</v>
+        <v>344642.0967153307</v>
       </c>
       <c r="M6" t="n">
-        <v>240910.6058580589</v>
+        <v>240875.8679326246</v>
       </c>
       <c r="N6" t="n">
-        <v>303767.7184324779</v>
+        <v>303732.9805070417</v>
       </c>
       <c r="O6" t="n">
-        <v>344526.8270137418</v>
+        <v>344492.0890883064</v>
       </c>
       <c r="P6" t="n">
-        <v>347550.1249909666</v>
+        <v>347515.387065531</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537684</v>
       </c>
       <c r="D3" t="n">
-        <v>862.9748695021884</v>
+        <v>862.974869502192</v>
       </c>
       <c r="E3" t="n">
         <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26790,28 +26790,28 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261631</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>553.4677521641653</v>
+        <v>553.4677521641701</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086482</v>
+        <v>981.3883278086478</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26957,37 +26957,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>305.2407236247794</v>
       </c>
       <c r="D3" t="n">
-        <v>9.264204964504302</v>
+        <v>9.26420496450794</v>
       </c>
       <c r="E3" t="n">
-        <v>349.1953979923677</v>
+        <v>349.195397992364</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218292</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288602</v>
+        <v>9.934451625288148</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27012,19 +27012,19 @@
         <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="D4" t="n">
-        <v>11.3527954380022</v>
+        <v>11.35279543800686</v>
       </c>
       <c r="E4" t="n">
-        <v>427.9205756444829</v>
+        <v>427.9205756444777</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173578</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.589369559843</v>
       </c>
       <c r="L4" t="n">
-        <v>11.35279543800197</v>
+        <v>11.35279543800664</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444832</v>
+        <v>427.9205756444779</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173578</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,19 +27258,19 @@
         <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598432</v>
       </c>
       <c r="L4" t="n">
-        <v>11.3527954380022</v>
+        <v>11.35279543800686</v>
       </c>
       <c r="M4" t="n">
-        <v>427.9205756444829</v>
+        <v>427.9205756444777</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173578</v>
+        <v>178.7569625173592</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364256</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>300.7155976545424</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637381</v>
+        <v>331.8830608123387</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27430,10 +27430,10 @@
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V2" t="n">
         <v>140.226671303815</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,10 +27458,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>7.535961812221217</v>
       </c>
       <c r="D3" t="n">
-        <v>41.17708729263573</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>7.884010625681285</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377097</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>93.20510176849672</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,7 +27588,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>275.3589271657821</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708302</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>51.72187150112697</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>110.5911125248606</v>
       </c>
       <c r="G6" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721433</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>192.7632183107638</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>60.47438162997838</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127.0654956069122</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923926</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>22.59469128425556</v>
       </c>
       <c r="R7" t="n">
         <v>108.0728512656386</v>
@@ -27825,16 +27825,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>35.73986807341285</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79.38044652357212</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>327.982517501793</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9646330484318</v>
+        <v>129.9646330484314</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9092264837461</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0681132513132</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,19 +27938,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.4873070665456</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.61339202271528</v>
+        <v>35.61339202271502</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.43165252365277</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,7 +27986,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>45.00524172927848</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>154.6106755843169</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8766783299226</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4347951675532</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3912803373881</v>
+        <v>148.391280337388</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6517721680248</v>
+        <v>108.6517721680246</v>
       </c>
       <c r="J10" t="n">
-        <v>16.97319914237121</v>
+        <v>16.97319914237077</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.19579633461541</v>
+        <v>21.19579633461487</v>
       </c>
       <c r="R10" t="n">
-        <v>107.3216913024511</v>
+        <v>107.3216913024508</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8965517281904</v>
+        <v>196.8965517281903</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2964387944122</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2341465824415</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.96506352995806</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28959,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>3.395446886618932e-12</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2.899014361901209e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-2.98632585327141e-12</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31291,10 +31291,10 @@
         <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840425</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934777</v>
       </c>
       <c r="N5" t="n">
         <v>612.3808166839008</v>
@@ -31303,22 +31303,22 @@
         <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928394</v>
       </c>
       <c r="R5" t="n">
         <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699489</v>
       </c>
       <c r="T5" t="n">
         <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206619</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095114</v>
       </c>
       <c r="J6" t="n">
         <v>173.4885040076062</v>
@@ -31370,19 +31370,19 @@
         <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616797</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730377</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152842</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>436.8985133884504</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475631</v>
       </c>
       <c r="Q6" t="n">
         <v>234.3999545349506</v>
@@ -31391,10 +31391,10 @@
         <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053858</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057842</v>
       </c>
       <c r="U6" t="n">
         <v>0.1208081129062761</v>
@@ -31440,22 +31440,22 @@
         <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017474</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>108.8411121001568</v>
       </c>
       <c r="K7" t="n">
         <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368735</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282505</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420138</v>
       </c>
       <c r="O7" t="n">
         <v>217.5982526595396</v>
@@ -31467,13 +31467,13 @@
         <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153088</v>
       </c>
       <c r="S7" t="n">
         <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978874</v>
       </c>
       <c r="U7" t="n">
         <v>0.08397154077419852</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.469245706541459</v>
+        <v>3.469245706541472</v>
       </c>
       <c r="H8" t="n">
-        <v>35.52941259211772</v>
+        <v>35.52941259211786</v>
       </c>
       <c r="I8" t="n">
-        <v>133.7480951014397</v>
+        <v>133.7480951014402</v>
       </c>
       <c r="J8" t="n">
-        <v>294.4478927855733</v>
+        <v>294.4478927855746</v>
       </c>
       <c r="K8" t="n">
-        <v>441.3010635434734</v>
+        <v>441.3010635434752</v>
       </c>
       <c r="L8" t="n">
-        <v>547.4729918350416</v>
+        <v>547.4729918350439</v>
       </c>
       <c r="M8" t="n">
-        <v>609.1691901687483</v>
+        <v>609.1691901687508</v>
       </c>
       <c r="N8" t="n">
-        <v>619.0261845324593</v>
+        <v>619.0261845324618</v>
       </c>
       <c r="O8" t="n">
-        <v>584.5288725380376</v>
+        <v>584.52887253804</v>
       </c>
       <c r="P8" t="n">
-        <v>498.8818691577953</v>
+        <v>498.8818691577973</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.6395072922792</v>
+        <v>374.6395072922807</v>
       </c>
       <c r="R8" t="n">
-        <v>217.9250056135351</v>
+        <v>217.925005613536</v>
       </c>
       <c r="S8" t="n">
-        <v>79.05543653781356</v>
+        <v>79.05543653781389</v>
       </c>
       <c r="T8" t="n">
-        <v>15.18662308038524</v>
+        <v>15.1866230803853</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2775396565233166</v>
+        <v>0.2775396565233177</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.856210096665085</v>
+        <v>1.856210096665092</v>
       </c>
       <c r="H9" t="n">
-        <v>17.9270817230549</v>
+        <v>17.92708172305497</v>
       </c>
       <c r="I9" t="n">
-        <v>63.90898797728472</v>
+        <v>63.90898797728498</v>
       </c>
       <c r="J9" t="n">
-        <v>175.3711477730816</v>
+        <v>175.3711477730823</v>
       </c>
       <c r="K9" t="n">
-        <v>299.7372242496422</v>
+        <v>299.7372242496434</v>
       </c>
       <c r="L9" t="n">
-        <v>403.0336878745834</v>
+        <v>403.0336878745851</v>
       </c>
       <c r="M9" t="n">
-        <v>470.3213038786926</v>
+        <v>470.3213038786946</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7693093076441</v>
+        <v>482.7693093076461</v>
       </c>
       <c r="O9" t="n">
-        <v>441.6396013762756</v>
+        <v>441.6396013762774</v>
       </c>
       <c r="P9" t="n">
-        <v>354.4547157394932</v>
+        <v>354.4547157394947</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9435905848273</v>
+        <v>236.9435905848283</v>
       </c>
       <c r="R9" t="n">
-        <v>115.2478514403112</v>
+        <v>115.2478514403116</v>
       </c>
       <c r="S9" t="n">
-        <v>34.47828841831854</v>
+        <v>34.47828841831868</v>
       </c>
       <c r="T9" t="n">
-        <v>7.481829293136895</v>
+        <v>7.481829293136926</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221190853069135</v>
+        <v>0.122119085306914</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556184190905586</v>
+        <v>1.556184190905592</v>
       </c>
       <c r="H10" t="n">
-        <v>13.83589217005149</v>
+        <v>13.83589217005155</v>
       </c>
       <c r="I10" t="n">
-        <v>46.79870275923344</v>
+        <v>46.79870275923363</v>
       </c>
       <c r="J10" t="n">
-        <v>110.0222222970249</v>
+        <v>110.0222222970253</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8003087252125</v>
+        <v>180.8003087252133</v>
       </c>
       <c r="L10" t="n">
-        <v>231.3621478006359</v>
+        <v>231.3621478006368</v>
       </c>
       <c r="M10" t="n">
-        <v>243.9389454889546</v>
+        <v>243.9389454889556</v>
       </c>
       <c r="N10" t="n">
-        <v>238.1386225955794</v>
+        <v>238.1386225955804</v>
       </c>
       <c r="O10" t="n">
-        <v>219.9595618200005</v>
+        <v>219.9595618200014</v>
       </c>
       <c r="P10" t="n">
-        <v>188.2134043255264</v>
+        <v>188.2134043255271</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3092052948304</v>
+        <v>130.309205294831</v>
       </c>
       <c r="R10" t="n">
-        <v>69.9717000747184</v>
+        <v>69.97170007471868</v>
       </c>
       <c r="S10" t="n">
-        <v>27.12004630878188</v>
+        <v>27.12004630878199</v>
       </c>
       <c r="T10" t="n">
-        <v>6.649150633869318</v>
+        <v>6.649150633869345</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08488277404939568</v>
+        <v>0.08488277404939602</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485649</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
         <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380257</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.593713530718</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726057</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216973</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857426</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898388</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294408</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615137</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895588</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356982</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475344</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
         <v>0.3898437041188518</v>
@@ -31829,40 +31829,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969423</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191522</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596479</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202555</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256416</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>355.5501343440784</v>
+        <v>219.8517740430757</v>
       </c>
       <c r="N12" t="n">
-        <v>678.117780114714</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.345287743181</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205471</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071846</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
         <v>48.42963285697586</v>
@@ -31911,19 +31911,19 @@
         <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737175</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691791</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836912</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
         <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509176</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
         <v>342.6467528263709</v>
@@ -31932,22 +31932,22 @@
         <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.964316705006</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
         <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.037710391678</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.2851498857061</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929612</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826904</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>568.4471445925085</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>391.6330708361143</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426203</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,7 +32324,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>524.5136961554247</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>560.1612034965806</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>137.7376326175082</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>233.9389431948329</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967487</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,22 +33494,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N33" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948335</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,25 +34205,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,16 +34933,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142394</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808905</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140553</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866205</v>
       </c>
       <c r="N5" t="n">
         <v>382.9677530873099</v>
@@ -34951,13 +34951,13 @@
         <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109601</v>
       </c>
       <c r="Q5" t="n">
         <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093947</v>
       </c>
       <c r="K6" t="n">
         <v>158.6780472169987</v>
@@ -35021,7 +35021,7 @@
         <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510194</v>
       </c>
       <c r="N6" t="n">
         <v>346.2449737319509</v>
@@ -35033,7 +35033,7 @@
         <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892904</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,19 +35094,19 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850721</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563525</v>
       </c>
       <c r="M7" t="n">
         <v>102.3944289806455</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>107.8966131767806</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769679</v>
       </c>
       <c r="P7" t="n">
         <v>48.46489236084162</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.4019882588871</v>
+        <v>113.4019882588883</v>
       </c>
       <c r="K8" t="n">
-        <v>221.2112124984928</v>
+        <v>221.2112124984947</v>
       </c>
       <c r="L8" t="n">
-        <v>311.7065768650544</v>
+        <v>311.7065768650567</v>
       </c>
       <c r="M8" t="n">
-        <v>378.8229569414756</v>
+        <v>378.8229569414781</v>
       </c>
       <c r="N8" t="n">
-        <v>389.6131209358684</v>
+        <v>389.6131209358709</v>
       </c>
       <c r="O8" t="n">
-        <v>354.4306611163508</v>
+        <v>354.4306611163532</v>
       </c>
       <c r="P8" t="n">
-        <v>267.6488734025257</v>
+        <v>267.6488734025278</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.3338174178297</v>
+        <v>152.3338174178312</v>
       </c>
       <c r="R8" t="n">
-        <v>2.339467799402968</v>
+        <v>2.339467799403849</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.53352110641487</v>
+        <v>48.53352110641558</v>
       </c>
       <c r="K9" t="n">
-        <v>161.8957852752832</v>
+        <v>161.8957852752844</v>
       </c>
       <c r="L9" t="n">
-        <v>264.4793080947093</v>
+        <v>264.4793080947109</v>
       </c>
       <c r="M9" t="n">
-        <v>328.1872699566743</v>
+        <v>328.1872699566762</v>
       </c>
       <c r="N9" t="n">
-        <v>351.4275972243108</v>
+        <v>351.4275972243128</v>
       </c>
       <c r="O9" t="n">
-        <v>299.0433569318312</v>
+        <v>299.043356931833</v>
       </c>
       <c r="P9" t="n">
-        <v>220.480308325163</v>
+        <v>220.4803083251645</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.9618164988058</v>
+        <v>96.96181649880677</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.78705055467717</v>
+        <v>51.7870505546779</v>
       </c>
       <c r="L10" t="n">
-        <v>96.47747151939762</v>
+        <v>96.47747151939856</v>
       </c>
       <c r="M10" t="n">
-        <v>105.0131615413495</v>
+        <v>105.0131615413506</v>
       </c>
       <c r="N10" t="n">
-        <v>110.4530781303463</v>
+        <v>110.4530781303472</v>
       </c>
       <c r="O10" t="n">
-        <v>81.5030233681577</v>
+        <v>81.50302336815858</v>
       </c>
       <c r="P10" t="n">
-        <v>50.48540027637875</v>
+        <v>50.48540027637952</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040317</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276251</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517101</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584699</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
         <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077541</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062442</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151093</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156604</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458965</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457674</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>213.4161004220601</v>
+        <v>77.71774012105745</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313808</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987365</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
         <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211631</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701841</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360913</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
         <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882115</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765381</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
         <v>333.5494446190456</v>
@@ -35586,7 +35586,7 @@
         <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998358</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>426.3131106704902</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>260.291358752781</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981759</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426736</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,7 +35972,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>393.1719840720914</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>418.0271695745623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>91.80490927281453</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>414.8381222824185</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295298</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,22 +37142,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N33" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295037</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281522</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37941,7 +37941,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010451</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
